--- a/results/pvalue_SIDER_all_transporter_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_all_transporter_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.932</t>
+          <t>4.106</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.258</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.142</t>
+          <t>4.279</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.165</t>
+          <t>3.385</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20.541</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.372</t>
+          <t>20.371</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.824</t>
+          <t>20.823</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.427</t>
+          <t>20.426</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.791</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
